--- a/data/trans_camb/P32A-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P32A-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P32A-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P32A-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,42 +637,42 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>1,93</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-2,04</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3,62</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,39</t>
         </is>
       </c>
     </row>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,64; 6,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,42; 0,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,88; 10,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,77; 5,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,1; 0,49</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>58,59%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-61,92%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>110,94%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,08%</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,77; 496,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 146,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,2; 582,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 161,7</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-0,92</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-1,74</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,36</t>
         </is>
       </c>
     </row>
@@ -901,27 +901,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,5; 1,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,81; 2,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,39; 0,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -931,17 +931,17 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,59; 1,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,76; 2,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,32; 0,06</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-39,98%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7,31%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-75,74%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,29%</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,25; 351,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,4; 325,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,06; 376,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,55</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,74</t>
         </is>
       </c>
     </row>
@@ -1117,17 +1117,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 0,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,72; 0,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,06; 6,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,22 +1142,22 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,51; 0,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,51; 0,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,13; 5,06</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-14,6%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-22,4%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>653,75%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,61%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,68%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>726,68%</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,63</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,25; 8,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 1,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 3,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 5,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,61; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,51; 2,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,57; 6,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,61; 0,66</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 2,07</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>715,91%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,09%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,6%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>262,83%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,8%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>573,56%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,03%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,11%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>81,03; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>86,18; 2332,94</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,25; 1026,66</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>3,08</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2,21</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,92</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1,65</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
     </row>
@@ -1549,22 +1549,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,21; 7,64</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,83; 7,42</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,84; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,37</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1574,22 +1574,22 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 23,99</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 6,17</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,51; 5,32</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,24; 4,52</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>333,75%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>239,1%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>432,75%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>257,63%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,78%</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,22</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,51; 1,16</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,19; 2,5</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 5,07</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,63</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,38</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,56; 6,56</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,52; 1,51</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 2,89</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,16; 4,27</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,39%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,31%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>244,63%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,7%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>191,06%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>391,0%</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,09</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,0; 3,88</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,33; 6,15</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,13; 3,9</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,72</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 4,12</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 6,3</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,09; 2,66</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,11; 4,15</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,6; 4,17</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>269,72%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>501,97%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>261,7%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>288,79%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>578,43%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>481,49%</t>
         </is>
       </c>
     </row>
@@ -2087,17 +2087,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,21; —</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,09; —</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,91; —</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2117,17 +2117,17 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,98; —</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,83; —</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,16; —</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 2,92</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 0,81</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 2,1</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,14; 0,0</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 2,84</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,71; 1,92</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,51; 1,58</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,56; 1,15</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 1,45</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>175,03%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,44%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,86%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,67%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,54%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,68%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,54%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,72%</t>
         </is>
       </c>
     </row>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,73; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,46; 679,98</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,1; 456,37</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,88</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,67; 2,47</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,13; 1,71</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,01; 1,55</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 1,33</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 1,93</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 2,43</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,52; 1,77</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 1,51</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,31; 1,53</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>137,65%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,19%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,95%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>160,0%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>308,22%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>373,68%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>137,07%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>112,3%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>106,43%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,81; 318,16</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,24; 232,6</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,54; 206,88</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,93; 1299,42</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 1448,3</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,13; 1880,14</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,03; 280,97</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,33; 239,18</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,58; 253,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P32A-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P32A-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>9,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7,55</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-1,34</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,19; 15,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 0,62</t>
+          <t>-5,39; 0,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,11; 10,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,0; 12,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 0,49</t>
+          <t>-4,03; 0,63</t>
         </is>
       </c>
     </row>
@@ -738,37 +738,37 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>292,7%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>58,59%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-61,02%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>58,59%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-61,92%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>343,54%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-63,08%</t>
+          <t>-61,06%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>56,6; 1100,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 146,86</t>
+          <t>-100,0; 154,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>72,98; 1182,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 161,7</t>
+          <t>-100,0; 197,49</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-1,37</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 0,24</t>
+          <t>-4,42; 0,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 0,06</t>
+          <t>-3,23; 0,04</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-75,74%</t>
+          <t>-76,99%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-78,29%</t>
+          <t>-78,89%</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,55</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>2,69</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,06; 6,63</t>
+          <t>0,96; 6,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,13; 5,06</t>
+          <t>1,12; 4,96</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>653,75%</t>
+          <t>634,84%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>726,68%</t>
+          <t>714,3%</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,9</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,62</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,25; 8,97</t>
+          <t>-1,54; 2,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 3,2</t>
+          <t>-0,95; 3,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 5,22</t>
+          <t>-4,07; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 2,3</t>
+          <t>-1,49; 2,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,57; 6,73</t>
+          <t>-1,26; 1,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 2,07</t>
+          <t>-0,74; 2,09</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>715,91%</t>
+          <t>20,14%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>74,6%</t>
+          <t>70,83%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>262,83%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>93,8%</t>
+          <t>96,63%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>573,56%</t>
+          <t>-13,13%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>80,11%</t>
+          <t>78,95%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>81,03; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>86,18; 2332,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-70,25; 1026,66</t>
+          <t>-70,63; 1028,14</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,49</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,99</t>
+          <t>0,0; 24,81</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 4,52</t>
+          <t>-1,24; 4,67</t>
         </is>
       </c>
     </row>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>74,78%</t>
+          <t>78,37%</t>
         </is>
       </c>
     </row>
@@ -1722,37 +1722,37 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
+          <t>2,12</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2,02</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>2,18</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>2,02</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>2,32</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>1,09</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>2,22</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 5,07</t>
+          <t>-0,78; 4,98</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,56; 6,56</t>
+          <t>0,55; 6,49</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,16; 4,27</t>
+          <t>0,13; 4,2</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>244,63%</t>
+          <t>237,97%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>391,0%</t>
+          <t>384,15%</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>1,65</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 3,9</t>
+          <t>-0,21; 3,71</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,47; 6,3</t>
+          <t>0,23; 5,21</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,6; 4,17</t>
+          <t>-0,02; 3,61</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>261,7%</t>
+          <t>248,2%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>481,49%</t>
+          <t>379,69%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-74,91; —</t>
+          <t>-75,28; —</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-6,16; —</t>
+          <t>-30,07; —</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,28</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 2,1</t>
+          <t>-0,49; 2,13</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 1,92</t>
+          <t>-1,7; 2,06</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 1,45</t>
+          <t>-0,57; 1,52</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>85,86%</t>
+          <t>89,02%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-21,54%</t>
+          <t>-16,86%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>40,72%</t>
+          <t>44,68%</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,79</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 1,55</t>
+          <t>-0,03; 1,52</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,43</t>
+          <t>0,16; 2,07</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,53</t>
+          <t>0,17; 1,41</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>68,95%</t>
+          <t>66,54%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>373,68%</t>
+          <t>317,94%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>106,43%</t>
+          <t>95,45%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 206,88</t>
+          <t>-5,71; 203,65</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>33,13; 1880,14</t>
+          <t>8,63; 1531,58</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>23,58; 253,76</t>
+          <t>13,39; 229,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P32A-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P32A-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,27 +685,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,19; 15,91</t>
+          <t>3,87; 15,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 6,98</t>
+          <t>-3,03; 6,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 0,69</t>
+          <t>-5,63; 1,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 10,84</t>
+          <t>1,09; 10,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 10,12</t>
+          <t>0,88; 11,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,0; 12,07</t>
+          <t>3,71; 11,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 5,93</t>
+          <t>-0,55; 5,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 0,63</t>
+          <t>-3,83; 0,63</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>56,6; 1100,55</t>
+          <t>52,74; 1055,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-58,77; 496,12</t>
+          <t>-61,58; 424,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 154,56</t>
+          <t>-100,0; 234,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>72,98; 1182,3</t>
+          <t>66,52; 1240,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,2; 582,21</t>
+          <t>-31,55; 644,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 197,49</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,27 +901,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 1,68</t>
+          <t>-3,42; 1,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 2,81</t>
+          <t>-2,81; 2,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 0,17</t>
+          <t>-4,1; 0,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,53</t>
+          <t>0,0; 3,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,41</t>
+          <t>0,0; 6,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -931,17 +931,17 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 1,35</t>
+          <t>-2,6; 1,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 2,55</t>
+          <t>-1,65; 2,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 0,04</t>
+          <t>-3,3; 0,02</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 289,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-79,25; 351,01</t>
+          <t>-74,55; 336,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-87,4; 325,11</t>
+          <t>-89,68; 229,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-70,06; 376,35</t>
+          <t>-71,07; 339,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,17 +1117,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 0,93</t>
+          <t>-1,66; 0,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,84</t>
+          <t>-1,73; 0,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 6,44</t>
+          <t>1,02; 6,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,22 +1142,22 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,79</t>
+          <t>0,0; 3,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 0,58</t>
+          <t>-1,22; 0,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 0,53</t>
+          <t>-1,5; 0,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,12; 4,96</t>
+          <t>1,14; 5,01</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 2,24</t>
+          <t>-1,34; 2,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 1,64</t>
+          <t>-1,65; 1,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 3,1</t>
+          <t>-1,15; 2,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 0,0</t>
+          <t>-3,28; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 0,0</t>
+          <t>-3,21; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 2,33</t>
+          <t>-1,6; 2,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 1,22</t>
+          <t>-1,29; 1,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 0,66</t>
+          <t>-1,56; 0,66</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 2,09</t>
+          <t>-0,77; 2,11</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-70,63; 1028,14</t>
+          <t>-68,44; —</t>
         </is>
       </c>
     </row>
@@ -1549,22 +1549,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 7,64</t>
+          <t>-0,32; 7,5</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 7,42</t>
+          <t>-0,86; 7,46</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 0,0</t>
+          <t>-4,54; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,37</t>
+          <t>0,0; 9,36</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1574,22 +1574,22 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,81</t>
+          <t>0,0; 27,67</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,28; 6,17</t>
+          <t>0,15; 5,76</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 5,32</t>
+          <t>-0,53; 5,33</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 4,67</t>
+          <t>-1,25; 4,68</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 1,16</t>
+          <t>-3,54; 1,16</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 2,5</t>
+          <t>-2,16; 2,93</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 4,98</t>
+          <t>-0,65; 4,81</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,63</t>
+          <t>0,0; 5,41</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,38</t>
+          <t>0,0; 6,14</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,55; 6,49</t>
+          <t>0,55; 6,04</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 1,51</t>
+          <t>-1,58; 1,47</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 2,89</t>
+          <t>-0,73; 2,98</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,13; 4,2</t>
+          <t>0,11; 4,24</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 3,88</t>
+          <t>-0,03; 3,71</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,33; 6,15</t>
+          <t>1,14; 5,6</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 3,71</t>
+          <t>-0,14; 3,6</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,72</t>
+          <t>0,0; 2,35</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,44; 4,12</t>
+          <t>0,44; 4,18</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,23; 5,21</t>
+          <t>0,25; 5,36</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,09; 2,66</t>
+          <t>0,14; 2,75</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,11; 4,15</t>
+          <t>1,25; 4,26</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 3,61</t>
+          <t>0,13; 3,49</t>
         </is>
       </c>
     </row>
@@ -2087,17 +2087,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-48,21; —</t>
+          <t>-55,33; —</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>23,09; —</t>
+          <t>18,91; —</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-75,28; —</t>
+          <t>-69,19; —</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2117,17 +2117,17 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-51,98; —</t>
+          <t>-34,23; —</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>58,83; —</t>
+          <t>45,05; —</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-30,07; —</t>
+          <t>-7,56; —</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 2,92</t>
+          <t>-0,07; 2,9</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 0,81</t>
+          <t>-0,87; 0,83</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 2,13</t>
+          <t>-0,5; 2,19</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 0,0</t>
+          <t>-2,63; 0,0</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 2,84</t>
+          <t>-0,91; 2,84</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 2,06</t>
+          <t>-1,69; 2,13</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,58</t>
+          <t>-0,54; 1,7</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,15</t>
+          <t>-0,63; 1,03</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,52</t>
+          <t>-0,6; 1,53</t>
         </is>
       </c>
     </row>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-66,73; —</t>
+          <t>-54,92; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
@@ -2333,17 +2333,17 @@
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-70,46; 679,98</t>
+          <t>-68,56; 657,47</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-67,1; 456,37</t>
+          <t>-69,24; 387,4</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,88; 673,08</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,47</t>
+          <t>0,61; 2,44</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,71</t>
+          <t>0,08; 1,79</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 1,52</t>
+          <t>-0,06; 1,5</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 1,33</t>
+          <t>-0,12; 1,32</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,93</t>
+          <t>0,24; 1,91</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,16; 2,07</t>
+          <t>0,12; 2,15</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,77</t>
+          <t>0,53; 1,85</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,51</t>
+          <t>0,39; 1,48</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,41</t>
+          <t>0,16; 1,45</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>37,81; 318,16</t>
+          <t>35,22; 313,78</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>6,24; 232,6</t>
+          <t>2,89; 243,6</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 203,65</t>
+          <t>-6,21; 209,32</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-45,93; 1299,42</t>
+          <t>-55,61; 1060,29</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1448,3</t>
+          <t>-3,05; 1561,1</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>8,63; 1531,58</t>
+          <t>-2,75; 1608,61</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>42,03; 280,97</t>
+          <t>45,1; 301,28</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>29,33; 239,18</t>
+          <t>34,53; 244,29</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>13,39; 229,56</t>
+          <t>13,35; 244,66</t>
         </is>
       </c>
     </row>
